--- a/电商项目/TP商城测试用例.xlsx
+++ b/电商项目/TP商城测试用例.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t xml:space="preserve">ID：
 建用例的编号
@@ -65,6 +65,69 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有网络，页面可以打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号：13488888888
+验证码：8888
+密码：123456
+确认密码：123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册成功
+跳转到首页
+保持登录状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZC_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码正确，注册成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码异常（第一位不为1，第二位非2的11位自然数），注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号：23488888888
+验证码：8888
+密码：123456
+确认密码：123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败
+出现提示性信息【请用手机号或者邮箱注册】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.打开浏览器，输入商城前台地址
+2.点击注册连接
+3.输入正确的手机号，密码，验证码，确认密码
+4.点击注册按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.打开浏览器，输入商城前台地址
+2.点击注册连接
+3.输入错误的手机号，密码，验证码，确认密码
+4.点击注册按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -218,38 +281,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,137 +626,188 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="8" width="18" customWidth="1"/>
+    <col min="1" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="26.75" customWidth="1"/>
+    <col min="5" max="5" width="26.625" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="4" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="6"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="6"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="6"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="6"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="6"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="6"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="4"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="6"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="3"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="1"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/电商项目/TP商城测试用例.xlsx
+++ b/电商项目/TP商城测试用例.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="注册功能" sheetId="1" r:id="rId1"/>
+    <sheet name="购物车" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t xml:space="preserve">ID：
 建用例的编号
@@ -128,6 +129,85 @@
 2.点击注册连接
 3.输入错误的手机号，密码，验证码，确认密码
 4.点击注册按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GWC_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品数量为0 ，提示【商品数量必须大于0】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.打开浏览器，进入tpshop
+2.进入我的购物车
+3.查看提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证购物车商品数量为0时，系统提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GWC_002</t>
+  </si>
+  <si>
+    <t>验证购物车商品数量为1时，正确显示购买信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品数量为1，购物车内的商品也是已挑选的商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GWC_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证商品数量大于200时，+号不可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存大于200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品数量大于200时，+号不可用</t>
+  </si>
+  <si>
+    <t>1.打开浏览器，进入tpshop
+2.添加1件商品至购物车
+3.进入我的购物车
+4.查看商品信息及数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.打开浏览器，进入tpshop
+2.添加1件商品至购物车
+3.进入我的购物车
+4.添加该商品数量到200
+4.查看商品数量+号是否可用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -281,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -319,6 +399,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -816,4 +902,225 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="43.75" customWidth="1"/>
+    <col min="5" max="5" width="26.625" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="50" customWidth="1"/>
+    <col min="8" max="8" width="33.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A13:E24"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/电商项目/TP商城测试用例.xlsx
+++ b/电商项目/TP商城测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="注册功能" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="117">
   <si>
     <t xml:space="preserve">ID：
 建用例的编号
@@ -113,25 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注册失败
-出现提示性信息【请用手机号或者邮箱注册】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.打开浏览器，输入商城前台地址
-2.点击注册连接
-3.输入正确的手机号，密码，验证码，确认密码
-4.点击注册按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.打开浏览器，输入商城前台地址
-2.点击注册连接
-3.输入错误的手机号，密码，验证码，确认密码
-4.点击注册按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GWC_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,11 +191,370 @@
 4.查看商品数量+号是否可用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ZC_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZC_004</t>
+  </si>
+  <si>
+    <t>ZC_005</t>
+  </si>
+  <si>
+    <t>ZC_006</t>
+  </si>
+  <si>
+    <t>ZC_007</t>
+  </si>
+  <si>
+    <t>ZC_008</t>
+  </si>
+  <si>
+    <t>ZC_009</t>
+  </si>
+  <si>
+    <t>ZC_010</t>
+  </si>
+  <si>
+    <t>ZC_011</t>
+  </si>
+  <si>
+    <t>手机号码异常（第一位为1，第二位为2的11位自然数），注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号：12488888888
+验证码：8888
+密码：123456
+确认密码：123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败
+出现提示性信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码异常（第一位为1，第二位非2的10位自然数），注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号：1348888888
+验证码：8888
+密码：123456
+确认密码：123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码异常（第一位为1，第二位非2的12位自然数），注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号：134888888888
+验证码：8888
+密码：123456
+确认密码：123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码异常(第一位为1.第二位非2的字母)，注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码异常(第一位为1.第二位非2的符号)，注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码异常(第一位为1.第二位非2的汉字)，注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号：13abcabcabc
+验证码：8888
+密码：123456
+确认密码：123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号：13!@#!@#!@#
+验证码：8888
+密码：123456
+确认密码：123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号：13你好啊
+验证码：8888
+密码：123456
+确认密码：123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZC_012</t>
+  </si>
+  <si>
+    <t>ZC_013</t>
+  </si>
+  <si>
+    <t>ZC_014</t>
+  </si>
+  <si>
+    <t>ZC_015</t>
+  </si>
+  <si>
+    <t>ZC_016</t>
+  </si>
+  <si>
+    <t>ZC_017</t>
+  </si>
+  <si>
+    <t>ZC_018</t>
+  </si>
+  <si>
+    <t>ZC_019</t>
+  </si>
+  <si>
+    <t>ZC_020</t>
+  </si>
+  <si>
+    <t>ZC_021</t>
+  </si>
+  <si>
+    <t>ZC_022</t>
+  </si>
+  <si>
+    <t>ZC_023</t>
+  </si>
+  <si>
+    <t>ZC_024</t>
+  </si>
+  <si>
+    <t>ZC_025</t>
+  </si>
+  <si>
+    <t>ZC_026</t>
+  </si>
+  <si>
+    <t>ZC_027</t>
+  </si>
+  <si>
+    <t>ZC_028</t>
+  </si>
+  <si>
+    <t>ZC_029</t>
+  </si>
+  <si>
+    <t>ZC_030</t>
+  </si>
+  <si>
+    <t>ZC_031</t>
+  </si>
+  <si>
+    <t>ZC_032</t>
+  </si>
+  <si>
+    <t>ZC_033</t>
+  </si>
+  <si>
+    <t>手机号码异常(不填写手机号)，注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码异常(填写已经注册过的手机号)，注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号：
+验证码：8888
+密码：123456
+确认密码：123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号：已注册的手机号
+验证码：8888
+密码：123456
+确认密码：123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码的输入内容与图片上的一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码的输入内容与图片上的不一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号：13488888888
+验证码：9999
+密码：123456
+确认密码：123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码是否能刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以正常刷新验证码图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.打开浏览器，输入商城前台地址
+2.点击注册
+3.点击刷新验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码格式正确（6到16位大写英文字母），注册成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码格式正确（6到16位小写英文字母），注册成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码格式正确（6到16位数字），注册成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码格式正确（6到16位符号），注册成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.打开浏览器，输入商城前台地址
+2.点击注册
+3.输入手机号，密码，验证码，确认密码
+4.点击注册按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.打开浏览器，输入商城前台地址
+2.点击注册
+3.输入手机号，密码、验证码，确认密码
+4.点击注册按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码格式正确，密码长度为6位，注册成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码格式正确，密码长度为16位，注册成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码格式正确，密码长度为7位，注册成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码格式正确，密码长度为15位，注册成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号：13488888888
+验证码：8888
+密码：123123123123123
+确认密码：123123123123123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号：13488888888
+验证码：8888
+密码：1231231231231231
+确认密码：1231231231231231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号：13488888888
+验证码：8888
+密码：123123
+确认密码：123123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号：13488888888
+验证码：8888
+密码：ABCABCABC
+确认密码：ABCABCABC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号：13488888888
+验证码：8888
+密码：abcabcabc
+确认密码：abcabcabc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号：13488888888
+验证码：8888
+密码：123123123
+确认密码：123123123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号：13488888888
+验证码：8888
+密码：！@#！@#！@#
+确认密码：！@#！@#！@#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号：13488888888
+验证码：8888
+密码：1231231
+确认密码：1231231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码格式错误，密码长度为5位，注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码格式错误，密码长度为17位，注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码格式错误，密码内容为汉字，注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号：13488888888
+验证码：8888
+密码：12312312312312312
+确认密码：12312312312312312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号：13488888888
+验证码：8888
+密码：12312
+确认密码：12312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号：13488888888
+验证码：8888
+密码：你好你好
+确认密码：你好你好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -361,7 +701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -371,6 +711,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -400,11 +746,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,7 +767,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -710,19 +1053,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="26.75" customWidth="1"/>
+    <col min="4" max="4" width="60.25" customWidth="1"/>
     <col min="5" max="5" width="26.625" customWidth="1"/>
     <col min="6" max="6" width="19.375" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="7" max="7" width="47.875" customWidth="1"/>
     <col min="8" max="8" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -752,7 +1095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -775,10 +1118,10 @@
         <v>14</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -798,109 +1141,722 @@
         <v>18</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="13"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A13:E24"/>
+    <mergeCell ref="A35:E46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -908,7 +1864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -949,81 +1905,81 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="G2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="H2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="14" t="s">
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="G3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="14" t="s">
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="15" t="s">
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="E4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14" t="s">
+      <c r="F4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="G4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="15" t="s">
+      <c r="H4" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1031,90 +1987,90 @@
     <row r="7" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/电商项目/TP商城测试用例.xlsx
+++ b/电商项目/TP商城测试用例.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="188">
   <si>
     <t xml:space="preserve">ID：
 建用例的编号
@@ -548,6 +548,349 @@
 验证码：8888
 密码：你好你好
 确认密码：你好你好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZC_034</t>
+  </si>
+  <si>
+    <t>ZC_035</t>
+  </si>
+  <si>
+    <t>确认密码格式正确（6到16位大写英文字母），注册成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认密码格式正确（6到16位小写英文字母），注册成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认密码格式正确（6到16位数字），注册成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认密码格式正确（6到16位符号），注册成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认密码格式正确，密码长度为6位，注册成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认密码格式正确，密码长度为16位，注册成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认密码格式正确，密码长度为7位，注册成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认密码格式正确，密码长度为15位，注册成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认密码格式错误，密码长度为5位，注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认密码格式错误，密码长度为17位，注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认密码格式错误，密码内容为汉字，注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZC_036</t>
+  </si>
+  <si>
+    <t>ZC_037</t>
+  </si>
+  <si>
+    <t>确认密码与密码一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认密码与密码不一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号：13488888888
+验证码：8888
+密码：123456
+确认密码：1234561</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZC_038</t>
+  </si>
+  <si>
+    <t>ZC_039</t>
+  </si>
+  <si>
+    <t>ZC_040</t>
+  </si>
+  <si>
+    <t>ZC_041</t>
+  </si>
+  <si>
+    <t>ZC_042</t>
+  </si>
+  <si>
+    <t>ZC_043</t>
+  </si>
+  <si>
+    <t>ZC_044</t>
+  </si>
+  <si>
+    <t>ZC_045</t>
+  </si>
+  <si>
+    <t>ZC_046</t>
+  </si>
+  <si>
+    <t>ZC_047</t>
+  </si>
+  <si>
+    <t>推荐人手机号码异常（第一位为1，第二位为2的11位自然数），注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐人手机号码异常（第一位为1，第二位非2的12位自然数），注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐人手机号码异常(第一位为1.第二位非2的字母)，注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐人手机号码异常(第一位为1.第二位非2的符号)，注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐人手机号码异常(第一位为1.第二位非2的汉字)，注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐人手机号码异常，填写未注册过的手机号，注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号：13488888888
+验证码：8888
+密码：123456
+确认密码：123456
+推荐人手机号：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐人手机号码正确（已注册的手机号），注册成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐人手机号码异常（第一位为1，第二位非2的10位自然数），注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐人手机号码异常（第一位不为1，第二位非2的11位自然数），注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号：13488888888
+推荐人手机号：23488888888
+验证码：8888
+密码：123456
+确认密码：123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号：13488888888
+推荐人手机号：12488888888
+验证码：8888
+密码：123456
+确认密码：123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号：13488888888
+推荐人手机号：1348888888
+验证码：8888
+密码：123456
+确认密码：123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号：13488888888
+推荐人手机号：134888888888
+验证码：8888
+密码：123456
+确认密码：123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号：13488888888
+推荐人手机号：13abcabcabc
+验证码：8888
+密码：123456
+确认密码：123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号：13488888888
+推荐人手机号：13!@#!@#!@#
+验证码：8888
+密码：123456
+确认密码：123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号：13488888888
+推荐人手机号：13你好啊
+验证码：8888
+密码：123456
+确认密码：123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号：13488888888
+推荐人手机号：
+验证码：8888
+密码：123456
+确认密码：123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号：13488888888
+推荐人手机号：未注册的手机号
+验证码：8888
+密码：123456
+确认密码：123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不填写推荐人手机号，注册成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZC_048</t>
+  </si>
+  <si>
+    <t>注册协议前未打勾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号：13488888888
+验证码：8888
+密码：123456
+确认密码：123456
+注册协议前不打勾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.打开浏览器，输入商城前台地址
+2.点击注册
+3.输入手机号，密码、验证码，确认密码，推荐人手机号
+4.点击注册按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZC_049</t>
+  </si>
+  <si>
+    <t>注册协议前打勾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号：13488888888
+验证码：8888
+密码：123456
+确认密码：123456
+注册协议前打勾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.打开浏览器，输入商城前台地址
+2.点击注册
+3.输入手机号，密码、验证码，确认密码，注册协议前打勾
+4.点击注册按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.打开浏览器，输入商城前台地址
+2.点击注册
+3.输入手机号，密码、验证码，确认密码，注册协议前不打勾
+4.点击注册按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZC_050</t>
+  </si>
+  <si>
+    <t>多次使用同一个已注册号码作为推荐人号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号：13488888888
+推荐人手机号：同一个已注册的手机号
+验证码：8888
+密码：123456
+确认密码：123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.打开浏览器，输入商城前台地址
+2.点击注册
+3.输入手机号，密码、验证码，确认密码，同一个已注册推荐人手机号
+4.点击注册按钮
+5.再进行第二个账号注册，依然使用上一个已注册的推荐人手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZC_051</t>
+  </si>
+  <si>
+    <t>检测输入框是否有提示性底文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查底文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有底文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.打开浏览器，输入商城前台地址
+2.点击注册
+3.检查是否有底文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZC_052</t>
+  </si>
+  <si>
+    <t>使用已注册的号码进行中注册是否提示已注册，马上登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">手机号：已注册的手机号
+验证码：8888
+密码：123456
+确认密码：123456
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败
+出现提示性信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.打开浏览器，输入商城前台地址
+2.点击注册
+3.输入手机号，密码、验证码，确认密码
+4.点击注册按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -719,6 +1062,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -745,9 +1091,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1053,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1177,7 +1520,7 @@
       <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1203,7 +1546,7 @@
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1229,7 +1572,7 @@
       <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1255,7 +1598,7 @@
       <c r="A8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1281,7 +1624,7 @@
       <c r="A9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1307,7 +1650,7 @@
       <c r="A10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1333,7 +1676,7 @@
       <c r="A11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1359,7 +1702,7 @@
       <c r="A12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1385,7 +1728,7 @@
       <c r="A13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1411,7 +1754,7 @@
       <c r="A14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1437,7 +1780,7 @@
       <c r="A15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -1463,7 +1806,7 @@
       <c r="A16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1489,7 +1832,7 @@
       <c r="A17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1515,7 +1858,7 @@
       <c r="A18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1541,7 +1884,7 @@
       <c r="A19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -1567,7 +1910,7 @@
       <c r="A20" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -1593,7 +1936,7 @@
       <c r="A21" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -1619,7 +1962,7 @@
       <c r="A22" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -1645,7 +1988,7 @@
       <c r="A23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -1671,7 +2014,7 @@
       <c r="A24" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -1697,7 +2040,7 @@
       <c r="A25" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -1723,136 +2066,819 @@
       <c r="A26" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="B26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="B27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>75</v>
       </c>
+      <c r="B28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>76</v>
       </c>
+      <c r="B29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="B30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>78</v>
       </c>
+      <c r="B31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="7" t="s">
+      <c r="B34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="3" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="3" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="3" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="108" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="12"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="12"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="12"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="12"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="12"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="10"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="12"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="12"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="10"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="12"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="10"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="12"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="13"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="15"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="10"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" s="11"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="13"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" s="11"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="13"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" s="11"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="13"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" s="11"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="13"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" s="11"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="13"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" s="11"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="13"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" s="11"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="13"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" s="11"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="13"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" s="11"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="13"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79" s="11"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="13"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80" s="14"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A35:E46"/>
+    <mergeCell ref="A69:E80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1987,90 +3013,90 @@
     <row r="7" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
